--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1662822.554590498</v>
+        <v>-1665542.452365714</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>8.654111332544119</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>22.35432802359297</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>4.529291253644646</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>90.55413811984059</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>69.21397588743008</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484597</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767961</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>74.19260532923555</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>29.27823999699306</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.71437374394024</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555389</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>48.65786981766052</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>175.2579100967769</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>149.4636984357681</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484597</v>
+        <v>142.8198058736721</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767961</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.71437374394024</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555389</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>269.6255602136845</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1040947548431382</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>79.41314830963854</v>
+        <v>140.2947128462256</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>141.3831318263009</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1813,16 +1813,16 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>107.9721668030647</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>186.6664387710204</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>154.2390706773481</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>214.5112792911752</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>176.5196562849271</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>26.13627195705896</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>94.91529601901487</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2956,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002303</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541853</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3955,16 +3955,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>787.7695974685114</v>
+        <v>1982.708887862241</v>
       </c>
       <c r="C2" t="n">
-        <v>418.8070805280996</v>
+        <v>1613.74637092183</v>
       </c>
       <c r="D2" t="n">
-        <v>60.54138192134913</v>
+        <v>1255.480672315079</v>
       </c>
       <c r="E2" t="n">
-        <v>51.79985532281972</v>
+        <v>869.6924197168348</v>
       </c>
       <c r="F2" t="n">
-        <v>51.79985532281972</v>
+        <v>458.7065149272273</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>458.7065149272273</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>608.5986938974718</v>
+        <v>455.1003844723691</v>
       </c>
       <c r="L2" t="n">
-        <v>846.2214751156638</v>
+        <v>692.7231656905592</v>
       </c>
       <c r="M2" t="n">
-        <v>1142.292041673267</v>
+        <v>1121.983124168528</v>
       </c>
       <c r="N2" t="n">
-        <v>1447.767147908852</v>
+        <v>1763.006333788422</v>
       </c>
       <c r="O2" t="n">
-        <v>1968.860256443059</v>
+        <v>2038.122553105055</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.74530482193</v>
+        <v>2238.426880394156</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2567.412636824226</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2567.412636824226</v>
       </c>
       <c r="U2" t="n">
-        <v>2231.666738407398</v>
+        <v>2313.771775205812</v>
       </c>
       <c r="V2" t="n">
-        <v>1900.603851063827</v>
+        <v>1982.708887862241</v>
       </c>
       <c r="W2" t="n">
-        <v>1547.835195793713</v>
+        <v>1982.708887862241</v>
       </c>
       <c r="X2" t="n">
-        <v>1174.369437532633</v>
+        <v>1982.708887862241</v>
       </c>
       <c r="Y2" t="n">
-        <v>1174.369437532633</v>
+        <v>1982.708887862241</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093843</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>460.3590590626825</v>
+        <v>585.1891840496857</v>
       </c>
       <c r="L3" t="n">
-        <v>1037.081874165938</v>
+        <v>794.7800573025152</v>
       </c>
       <c r="M3" t="n">
-        <v>1678.105083785832</v>
+        <v>1435.803266922409</v>
       </c>
       <c r="N3" t="n">
-        <v>1963.438954219165</v>
+        <v>1721.137137355741</v>
       </c>
       <c r="O3" t="n">
-        <v>2202.243905970624</v>
+        <v>2037.107513972039</v>
       </c>
       <c r="P3" t="n">
-        <v>2374.572866924334</v>
+        <v>2524.714615879286</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291.1817752888902</v>
+        <v>1794.329536110899</v>
       </c>
       <c r="C4" t="n">
-        <v>291.1817752888902</v>
+        <v>1625.393353182992</v>
       </c>
       <c r="D4" t="n">
-        <v>291.1817752888902</v>
+        <v>1625.393353182992</v>
       </c>
       <c r="E4" t="n">
-        <v>143.2686817064971</v>
+        <v>1477.480259600599</v>
       </c>
       <c r="F4" t="n">
-        <v>143.2686817064971</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="G4" t="n">
-        <v>143.2686817064971</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>1332.824984110053</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>1466.334073395855</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>1692.706176713999</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>1941.772943046538</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>2190.352074789138</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>2403.938841137293</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>2563.178535773336</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702568</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S4" t="n">
-        <v>991.0700018628692</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T4" t="n">
-        <v>766.6588426383072</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U4" t="n">
-        <v>766.6588426383072</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V4" t="n">
-        <v>511.9743544324203</v>
+        <v>2335.308277935099</v>
       </c>
       <c r="W4" t="n">
-        <v>511.9743544324203</v>
+        <v>2045.891107898139</v>
       </c>
       <c r="X4" t="n">
-        <v>511.9743544324203</v>
+        <v>2045.891107898139</v>
       </c>
       <c r="Y4" t="n">
-        <v>291.1817752888902</v>
+        <v>1975.978000941139</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1247.782604635668</v>
+        <v>825.1375633701432</v>
       </c>
       <c r="C5" t="n">
-        <v>1247.782604635668</v>
+        <v>456.1750464297314</v>
       </c>
       <c r="D5" t="n">
-        <v>1247.782604635668</v>
+        <v>456.1750464297314</v>
       </c>
       <c r="E5" t="n">
-        <v>1247.782604635668</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="F5" t="n">
-        <v>836.7966998460608</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461928</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104757</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K5" t="n">
-        <v>447.831944713549</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477367</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187501</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2515.0507405559</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2306.405381014727</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.590997961805</v>
+        <v>2306.405381014727</v>
       </c>
       <c r="V5" t="n">
-        <v>1974.017018166862</v>
+        <v>1975.342493671156</v>
       </c>
       <c r="W5" t="n">
-        <v>1621.248362896748</v>
+        <v>1975.342493671156</v>
       </c>
       <c r="X5" t="n">
-        <v>1247.782604635668</v>
+        <v>1601.876735410077</v>
       </c>
       <c r="Y5" t="n">
-        <v>1247.782604635668</v>
+        <v>1211.737403434265</v>
       </c>
     </row>
     <row r="6">
@@ -4629,37 +4629,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625618</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065193</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226162</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258291</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>599.258696342144</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M6" t="n">
-        <v>965.5645858344699</v>
+        <v>965.5645858344687</v>
       </c>
       <c r="N6" t="n">
-        <v>1355.974147160213</v>
+        <v>1554.712543231644</v>
       </c>
       <c r="O6" t="n">
-        <v>1996.997356780107</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
         <v>2445.212480716556</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>536.6253205712304</v>
+        <v>474.929694538048</v>
       </c>
       <c r="C7" t="n">
-        <v>367.6891376433235</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="D7" t="n">
-        <v>367.6891376433235</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="E7" t="n">
-        <v>219.7760440609304</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="F7" t="n">
-        <v>219.7760440609304</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080558</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121974</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225447</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317426</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
-        <v>1391.6026718971</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
-        <v>1646.983670153879</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1597.834306701697</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1597.834306701697</v>
+        <v>1469.955478136932</v>
       </c>
       <c r="T7" t="n">
-        <v>1597.834306701697</v>
+        <v>1247.020903678913</v>
       </c>
       <c r="U7" t="n">
-        <v>1308.716529712095</v>
+        <v>1247.020903678913</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.032041506208</v>
+        <v>992.3364154730259</v>
       </c>
       <c r="W7" t="n">
-        <v>764.6148714692478</v>
+        <v>702.9192454360654</v>
       </c>
       <c r="X7" t="n">
-        <v>536.6253205712304</v>
+        <v>474.929694538048</v>
       </c>
       <c r="Y7" t="n">
-        <v>536.6253205712304</v>
+        <v>474.929694538048</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1352.981331965417</v>
+        <v>1408.518284685966</v>
       </c>
       <c r="C8" t="n">
-        <v>1202.007899202015</v>
+        <v>1408.518284685966</v>
       </c>
       <c r="D8" t="n">
-        <v>843.7422005952643</v>
+        <v>1408.518284685966</v>
       </c>
       <c r="E8" t="n">
-        <v>843.7422005952643</v>
+        <v>1022.730032087722</v>
       </c>
       <c r="F8" t="n">
-        <v>836.7966998460608</v>
+        <v>611.7441272981141</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461928</v>
+        <v>196.0622854982461</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281977</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104783</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135516</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645559</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507465</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140988</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560733</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.815585560733</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.815585560733</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.815585560733</v>
+        <v>2134.75269821716</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.046930290619</v>
+        <v>1781.984042947046</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.581172029539</v>
+        <v>1408.518284685966</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.581172029539</v>
+        <v>1408.518284685966</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281977</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226163</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258291</v>
+        <v>301.946747225829</v>
       </c>
       <c r="L9" t="n">
-        <v>599.258696342144</v>
+        <v>599.2586963421438</v>
       </c>
       <c r="M9" t="n">
-        <v>986.7234258330878</v>
+        <v>1011.807347657622</v>
       </c>
       <c r="N9" t="n">
-        <v>1627.746635452982</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1962.675316168514</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2212.152044033533</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.8288664011731</v>
+        <v>600.7965526904445</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8926834732662</v>
+        <v>600.7965526904445</v>
       </c>
       <c r="D10" t="n">
-        <v>219.7760440609304</v>
+        <v>600.7965526904445</v>
       </c>
       <c r="E10" t="n">
-        <v>219.7760440609304</v>
+        <v>452.8834591080514</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609304</v>
+        <v>305.993511610141</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281977</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281977</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281977</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080562</v>
+        <v>77.98108068080553</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121975</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225447</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317426</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>1391.6026718971</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
         <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153879</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153879</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153879</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.049095695861</v>
+        <v>1321.927733452886</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.049095695861</v>
+        <v>1049.578682731992</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.364607489974</v>
+        <v>1049.578682731992</v>
       </c>
       <c r="W10" t="n">
-        <v>1169.25946127296</v>
+        <v>1049.578682731992</v>
       </c>
       <c r="X10" t="n">
-        <v>941.2699103749429</v>
+        <v>821.5891318339746</v>
       </c>
       <c r="Y10" t="n">
-        <v>720.4773312314128</v>
+        <v>600.7965526904445</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5021,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.07903472198</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2253.988764961267</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.9745311434716</v>
+        <v>1016.580456911442</v>
       </c>
       <c r="C13" t="n">
-        <v>701.0383482155647</v>
+        <v>847.6442739835347</v>
       </c>
       <c r="D13" t="n">
-        <v>550.921708803229</v>
+        <v>697.527634571199</v>
       </c>
       <c r="E13" t="n">
-        <v>403.0086152208358</v>
+        <v>549.6145409888059</v>
       </c>
       <c r="F13" t="n">
-        <v>256.1186677229255</v>
+        <v>402.7245934908955</v>
       </c>
       <c r="G13" t="n">
-        <v>256.1186677229255</v>
+        <v>235.5284942057755</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5230,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1901.695539989116</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1647.011051783229</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015259</v>
+        <v>1647.011051783229</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.415575117241</v>
+        <v>1419.021500885211</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.622995973711</v>
+        <v>1198.228921741681</v>
       </c>
     </row>
     <row r="14">
@@ -5264,40 +5264,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5461,22 +5461,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934014</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035996</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y16" t="n">
         <v>1130.19898568143</v>
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,22 +5531,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684978</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.8386896933887</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>988.4871545236284</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.4871545236284</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>244.2098454714573</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1943.637854965528</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1688.953366759641</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1399.536196722681</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2420.562808876161</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2420.562808876161</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>2420.562808876161</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>2131.487582220359</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1876.803094014472</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1587.385923977512</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,13 +6236,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319335</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150035</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942666</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580125</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,31 +6616,31 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694706</v>
@@ -6728,7 +6728,7 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684978</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319335</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150035</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942666</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580125</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345487</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,28 +6856,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,31 +6932,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,28 +7093,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150021</v>
@@ -7318,16 +7318,16 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,46 +7336,46 @@
         <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7552,28 +7552,28 @@
         <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7606,10 +7606,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7737,16 +7737,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345473</v>
@@ -7828,28 +7828,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>134.5347393135033</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659704</v>
       </c>
       <c r="O2" t="n">
-        <v>248.4615042601745</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660669</v>
+        <v>380.8926041660687</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>77.94487360085009</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>151.6583322777284</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.766944277080249e-12</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>200.7458546176086</v>
       </c>
       <c r="O6" t="n">
-        <v>309.1863928326894</v>
+        <v>309.1863928326899</v>
       </c>
       <c r="P6" t="n">
-        <v>200.7458546176064</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906571</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8538,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>21.37256565516975</v>
+        <v>46.70986042742658</v>
       </c>
       <c r="N9" t="n">
-        <v>253.1450992870222</v>
+        <v>253.1450992870218</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-5.350800898672441e-13</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-7.624537653104762e-13</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>373.2762587397177</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>378.11952425025</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>117.9614559498313</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22765,10 +22765,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>60.88156453658532</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>144.8013425629433</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>144.1654765207633</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.91821458107441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>71.47058471168901</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>71.67319509806899</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>40.23897475306271</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>43.72409101823369</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>191.2691783702293</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.502146765717628e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1094631.103032126</v>
+        <v>1094631.103032127</v>
       </c>
     </row>
     <row r="3">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.00901045138</v>
+        <v>99467.00901045145</v>
       </c>
       <c r="C2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="E2" t="n">
         <v>121071.9899535009</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898929</v>
+        <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
-        <v>2.118872544087935e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457502</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042351</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363173</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69645.52123312774</v>
+        <v>69645.52123312833</v>
       </c>
       <c r="C4" t="n">
         <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252478</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.48053169503</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695026</v>
+        <v>6287.480531695037</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695064</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.48053169503</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>14278.3397947885</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="L4" t="n">
-        <v>14278.33979478848</v>
+        <v>14278.33979478857</v>
       </c>
       <c r="M4" t="n">
         <v>14278.33979478852</v>
       </c>
       <c r="N4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478853</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478853</v>
       </c>
       <c r="P4" t="n">
         <v>14278.33979478852</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150964</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-999206.5229950658</v>
+        <v>-999601.3439362166</v>
       </c>
       <c r="C6" t="n">
-        <v>-272155.9383970079</v>
+        <v>-272155.9383970101</v>
       </c>
       <c r="D6" t="n">
-        <v>-99391.57860711523</v>
+        <v>-99391.57860711505</v>
       </c>
       <c r="E6" t="n">
-        <v>-487226.8881478515</v>
+        <v>-487261.6260732876</v>
       </c>
       <c r="F6" t="n">
-        <v>13661.97959789878</v>
+        <v>13627.24167246305</v>
       </c>
       <c r="G6" t="n">
-        <v>13661.97959789877</v>
+        <v>13627.24167246307</v>
       </c>
       <c r="H6" t="n">
-        <v>13661.97959789877</v>
+        <v>13627.24167246305</v>
       </c>
       <c r="I6" t="n">
-        <v>13661.97959789878</v>
+        <v>13627.24167246306</v>
       </c>
       <c r="J6" t="n">
-        <v>-155752.0372281493</v>
+        <v>-155786.775153585</v>
       </c>
       <c r="K6" t="n">
-        <v>-13713.90816269329</v>
+        <v>-13713.9081626933</v>
       </c>
       <c r="L6" t="n">
-        <v>5713.80983093851</v>
+        <v>5713.809830938451</v>
       </c>
       <c r="M6" t="n">
-        <v>-125170.6470732966</v>
+        <v>-125170.6470732967</v>
       </c>
       <c r="N6" t="n">
-        <v>5713.809830938597</v>
+        <v>5713.809830938524</v>
       </c>
       <c r="O6" t="n">
-        <v>5713.809830938568</v>
+        <v>5713.809830938582</v>
       </c>
       <c r="P6" t="n">
-        <v>-13713.9081626932</v>
+        <v>-13713.90816269311</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498452</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498452</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352471</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522344</v>
+        <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918288</v>
+        <v>428.2691096918292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644013</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644015</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644013</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>34.1682144447941</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>246.5751617485846</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>59.64874954407992</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>149.3706774646647</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>48.74280344521749</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>298.4740184731418</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>52.44227880288384</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>19.2272592373142</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>215.8091933352395</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>157.9664813747877</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
@@ -28065,13 +28065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>16.6010390060211</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.4189035817479</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265706</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730743</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
-        <v>145.6403241227263</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182605</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.539404179398</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853284</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027924</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839337</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712728</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062755</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086973</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
-        <v>237.3018354237521</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179238</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837064</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612564</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
-        <v>19.52107049255622</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586119</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583804</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675033</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.869479897364</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041655</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315582</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470014</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274808</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157839</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284992</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.14707710384158</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.694552507729229</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>15.06611229599261</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425719</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
-        <v>119.8048622964565</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525413</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979554</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509648</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561278</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984514</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662512</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288119</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843066</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523077</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265706</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730743</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I8" t="n">
-        <v>145.6403241227263</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182605</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.539404179398</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853284</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027924</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839337</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712728</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062755</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086973</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237521</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179238</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837064</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612564</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,43 +31595,43 @@
         <v>2.021255255360044</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255622</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586119</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583804</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675033</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.869479897364</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041655</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315582</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470014</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274808</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157839</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284992</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.14707710384158</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315819</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729229</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.06611229599261</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425719</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964565</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525413</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309437</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979554</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509648</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561278</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984514</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
         <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662512</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288119</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843066</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523077</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P12" t="n">
-        <v>163.4402738502014</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N15" t="n">
-        <v>322.6999460717711</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
@@ -32099,7 +32099,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32309,25 +32309,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>269.1634560719501</v>
+        <v>302.9675447508045</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
@@ -32336,7 +32336,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>287.9685048518522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>652.3203287778402</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>407.217739120397</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,7 +33047,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>251.8861049150245</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>163.4402738502014</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>270.97169333569</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873218</v>
+        <v>163.4293051161554</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>433.5959176545143</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O2" t="n">
-        <v>526.356675287078</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>202.3276033223249</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>211.7079527806359</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>319.16199658212</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>492.5324261689357</v>
       </c>
       <c r="Q3" t="n">
-        <v>217.5958577945981</v>
+        <v>65.93752551686885</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-3.126388037344441e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915717</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344174</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153412</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755197</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873428</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.404120749586</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.007018751006</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342479</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760962</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171366</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931443</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174899</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821472</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482249</v>
+        <v>595.0989468658332</v>
       </c>
       <c r="O6" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="P6" t="n">
-        <v>452.7425494307569</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297624</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978369</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266584</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912599</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597959</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301934</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701675</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643223</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915742</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344174</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153412</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755197</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873428</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O8" t="n">
-        <v>406.404120749586</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P8" t="n">
-        <v>312.007018751006</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342479</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760962</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171366</v>
+        <v>64.1266691917136</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931443</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174899</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>391.378514637317</v>
+        <v>416.7158094095736</v>
       </c>
       <c r="N9" t="n">
-        <v>647.4981915352471</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O9" t="n">
-        <v>338.311798702557</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131506</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656115</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225511</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978369</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266584</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912599</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597959</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301934</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701675</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P10" t="n">
         <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643223</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
         <v>696.4886512243162</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,22 +35495,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P12" t="n">
-        <v>29.46586643587111</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.4543240367771</v>
@@ -35732,13 +35732,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N15" t="n">
-        <v>191.3582339884378</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>127.0294221499318</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>150.1270658774932</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>520.978616694507</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36604,7 +36604,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,13 +36680,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>265.0837051983787</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>120.5443928316912</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>29.46586643587111</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>132.4173135558158</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
